--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/89.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/89.xlsx
@@ -479,13 +479,13 @@
         <v>-6.800480308870565</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.25102708515661</v>
+        <v>-10.44767347383934</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.149984592952701</v>
+        <v>-3.184954133842951</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.070147371336529</v>
+        <v>-7.639780375677188</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.409020248030179</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.82304288861446</v>
+        <v>-11.00027339218291</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.251986724392589</v>
+        <v>-3.271664455563703</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.967372794028979</v>
+        <v>-7.507299363221762</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.856571310064639</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.98701088940424</v>
+        <v>-11.15118836703949</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.156098698379787</v>
+        <v>-3.165498971820146</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.597829454018419</v>
+        <v>-7.122490398097749</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.188987114986479</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.45218040937077</v>
+        <v>-11.6100473970363</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.294458154811148</v>
+        <v>-3.309252457022298</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.303016978628431</v>
+        <v>-6.822820678353481</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.403192365183048</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.8954203220774</v>
+        <v>-12.01630155421506</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.382019476216612</v>
+        <v>-3.376389785994669</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.018953283871501</v>
+        <v>-6.542187166941083</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.525092912377223</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.4427571346786</v>
+        <v>-12.55460467785547</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.255443092342804</v>
+        <v>-3.251960539786905</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.704292877373456</v>
+        <v>-6.215442564920126</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.570831933006075</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.03091574754031</v>
+        <v>-13.1282439268657</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.257694968431581</v>
+        <v>-3.22514750356705</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.545954566805621</v>
+        <v>-6.043985766904881</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.560914727818532</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.45684763589018</v>
+        <v>-13.54078238940849</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.372160972176792</v>
+        <v>-3.345046812991577</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.406089495547462</v>
+        <v>-5.88795170163719</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.5083253363921258</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.13085247848508</v>
+        <v>-14.24336772910687</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.245492942183092</v>
+        <v>-3.213521538643597</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.375257122355197</v>
+        <v>-5.845087502133379</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.5704307002176511</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.57917220469431</v>
+        <v>-14.68202533581891</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.324269328381758</v>
+        <v>-3.290320987113162</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.378373090431528</v>
+        <v>-5.864189171979457</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>1.65514045938805</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.13524158329094</v>
+        <v>-15.24866020280881</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.359265053877692</v>
+        <v>-3.32580112781424</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.122955354292294</v>
+        <v>-5.5852314753308</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>2.719087061863126</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.22433470412888</v>
+        <v>-15.33036926484402</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.444273376229019</v>
+        <v>-3.437059517363228</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.673260936284687</v>
+        <v>-5.137959133348912</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>3.730753868656107</v>
       </c>
       <c r="E14" t="n">
-        <v>-15.90733395877605</v>
+        <v>-16.0305979900309</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.152616145823888</v>
+        <v>-3.119060573640544</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.305615980186177</v>
+        <v>-4.775014313970582</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>4.656576033443804</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.51536668735149</v>
+        <v>-16.63119429059224</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.082677064043387</v>
+        <v>-3.060380872303928</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.25397993777841</v>
+        <v>-4.71811516582044</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>5.465397646070939</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.27381688327553</v>
+        <v>-17.40511958847519</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.900366746972352</v>
+        <v>-2.850354150116958</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.006731798612413</v>
+        <v>-4.478355823879911</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>6.135508621395697</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.78728390842518</v>
+        <v>-17.91125492403348</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.766340842781602</v>
+        <v>-2.726553334445596</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.749900093766273</v>
+        <v>-4.25421559922956</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>6.658983115279689</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.20118397046351</v>
+        <v>-18.33987073446591</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.849398412009512</v>
+        <v>-2.804517997868075</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.656892374378651</v>
+        <v>-4.167466000600283</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>7.039770382782507</v>
       </c>
       <c r="E19" t="n">
-        <v>-18.76226770104852</v>
+        <v>-18.92736163988268</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.629775031839557</v>
+        <v>-2.578073527917581</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.284377081623019</v>
+        <v>-3.809862840781378</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>7.289800103727895</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.08042375240531</v>
+        <v>-19.25046658171364</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.389217059425682</v>
+        <v>-2.340461323643094</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.901217746657064</v>
+        <v>-3.454459187839882</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>7.427870577839158</v>
       </c>
       <c r="E21" t="n">
-        <v>-19.74347033752168</v>
+        <v>-19.95440042860473</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.147480779756052</v>
+        <v>-2.098410828705263</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.854779348477461</v>
+        <v>-3.432568857488516</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>7.470247008646634</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.30033834659165</v>
+        <v>-20.53196736846747</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.960994018078506</v>
+        <v>-1.889235106203005</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.828398358251383</v>
+        <v>-3.409513312184237</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>7.428718143380504</v>
       </c>
       <c r="E23" t="n">
-        <v>-20.48772847716528</v>
+        <v>-20.7381842305275</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.83700991016736</v>
+        <v>-1.754816432927004</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.645394149129736</v>
+        <v>-3.255770399913847</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>7.314843074572283</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.00209887121101</v>
+        <v>-21.28418562823884</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.633071108801793</v>
+        <v>-1.571628931565573</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.7972779543966</v>
+        <v>-3.401212792182582</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>7.13609798366674</v>
       </c>
       <c r="E25" t="n">
-        <v>-21.16224391957101</v>
+        <v>-21.45634941060754</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.445458409079859</v>
+        <v>-1.383466355124286</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.813198194652139</v>
+        <v>-3.398253931740352</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>6.896324422965076</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.28755035006917</v>
+        <v>-21.56000117220549</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.451205930027376</v>
+        <v>-1.403039347872666</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.026825300120584</v>
+        <v>-3.597702073231207</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>6.60298767078983</v>
       </c>
       <c r="E27" t="n">
-        <v>-21.36501750598366</v>
+        <v>-21.64376572578685</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.302555923562419</v>
+        <v>-1.211708434143681</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.287925095693126</v>
+        <v>-3.815636546334579</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>6.273031444415271</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.28961893391816</v>
+        <v>-21.55403108210966</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.240642423423896</v>
+        <v>-1.176856723979007</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.326010604659708</v>
+        <v>-3.844649089431844</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>5.926671088850691</v>
       </c>
       <c r="E29" t="n">
-        <v>-21.33972317689345</v>
+        <v>-21.62300133347987</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.092254263015773</v>
+        <v>-1.023022165588725</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.641312533996997</v>
+        <v>-4.158890542238953</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>5.583878624129933</v>
       </c>
       <c r="E30" t="n">
-        <v>-21.3746010716638</v>
+        <v>-21.66362674919775</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.179750122907028</v>
+        <v>-1.116252454124657</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.818385929931341</v>
+        <v>-4.342549366502687</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>5.274636795636369</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.21810877579665</v>
+        <v>-21.50592996146916</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.247319497873176</v>
+        <v>-1.188299396662675</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.870074341550476</v>
+        <v>-4.385636135154807</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>5.023813006123182</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.10561970978054</v>
+        <v>-21.37342276440805</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.328413221674828</v>
+        <v>-1.277012840718211</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.194265944517297</v>
+        <v>-4.685070193447924</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>4.848621128867904</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.0591682192981</v>
+        <v>-21.34168702231971</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.404139101311371</v>
+        <v>-1.347737460669215</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.107791284247696</v>
+        <v>-4.595780688067352</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>4.766784401928491</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.66202630489718</v>
+        <v>-20.95107816703681</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.542131973263164</v>
+        <v>-1.506245971173993</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.048024921775217</v>
+        <v>-4.522856561238938</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>4.787042073113058</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.39443272711514</v>
+        <v>-20.686194695943</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.578502390557479</v>
+        <v>-1.528934931998704</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.01126173539565</v>
+        <v>-4.497496770634514</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>4.905484001532467</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.16348450498709</v>
+        <v>-20.45138424447665</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.745259051852544</v>
+        <v>-1.705157328248337</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.914601263515186</v>
+        <v>-4.377505815090095</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>5.110413258492547</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.87665833433056</v>
+        <v>-20.16017215236814</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.749370034944846</v>
+        <v>-1.712200987177185</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.728428717105842</v>
+        <v>-4.224168764207799</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>5.38722257253723</v>
       </c>
       <c r="E38" t="n">
-        <v>-19.56068869754834</v>
+        <v>-19.83857282536398</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.82305351533808</v>
+        <v>-1.784575237286247</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.37942720025395</v>
+        <v>-3.835419015928427</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>5.70901186716933</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.42253871796245</v>
+        <v>-19.7160550553711</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.756885016775997</v>
+        <v>-1.727073843205386</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.048362138295223</v>
+        <v>-3.501892601035456</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>6.039080905825484</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.06197669770131</v>
+        <v>-19.33098424419026</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.911151621160055</v>
+        <v>-1.842966907960345</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.204998449493634</v>
+        <v>-3.639113027119587</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>6.345635924723973</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.69924135516845</v>
+        <v>-18.94511480253606</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.778775347127363</v>
+        <v>-1.693531363324884</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.788872695972212</v>
+        <v>-3.241277220668056</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>6.593468778590486</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.1617106773957</v>
+        <v>-18.3866495325194</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.878774356232466</v>
+        <v>-1.805941875523944</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.686373057024339</v>
+        <v>-3.155601190871801</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>6.749532292683096</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.8056785939178</v>
+        <v>-18.03644352380607</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.149654102027779</v>
+        <v>-2.097756213563176</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.593352245333875</v>
+        <v>-3.071116560634143</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>6.79210821427223</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.63995622454723</v>
+        <v>-17.85103033096154</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.265115120788961</v>
+        <v>-2.216215369675114</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.429371152241256</v>
+        <v>-2.872519418828</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>6.711589192640965</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.47414220905678</v>
+        <v>-17.65990889407803</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.166320603545296</v>
+        <v>-2.146446487831556</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.368766882386906</v>
+        <v>-2.827665189292246</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>6.509316403623787</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.06013740859571</v>
+        <v>-17.22574194724071</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.296628293728995</v>
+        <v>-2.265887566656623</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.18629945768177</v>
+        <v>-2.638992013040132</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>6.197152635958439</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.14136205542578</v>
+        <v>-17.27388234478973</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.209603756740042</v>
+        <v>-2.160992036288714</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.068521101317602</v>
+        <v>-2.527641977371252</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>5.800096538574643</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.01100199603071</v>
+        <v>-17.1483664374461</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.341168307996548</v>
+        <v>-2.304522952342556</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.850494982094338</v>
+        <v>-2.301917584077053</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>5.346225709881548</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.56577205329214</v>
+        <v>-16.69937900379195</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.368439574815863</v>
+        <v>-2.325392083072268</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.799631385554232</v>
+        <v>-2.269919995931875</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>4.861239424833617</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.30249893544787</v>
+        <v>-16.39851788448908</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.556497412834416</v>
+        <v>-2.508985445821792</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.614034900469923</v>
+        <v>-2.083420141951486</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>4.374894170935817</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.85157384097314</v>
+        <v>-15.93939700843544</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.6575568984697</v>
+        <v>-2.623935864772147</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.52913131654133</v>
+        <v>-1.980540826221203</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>3.913009979608402</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.69049923911138</v>
+        <v>-15.77181553206134</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.572587853026898</v>
+        <v>-2.524604563111971</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.480166103913275</v>
+        <v>-1.919124833590666</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>3.494243496227808</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.24468014274493</v>
+        <v>-15.30601758155841</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.443183531739277</v>
+        <v>-2.41969594044122</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.502265911110108</v>
+        <v>-1.93166725971304</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>3.132367792396525</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.91852469435185</v>
+        <v>-14.96246246268868</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.64208179651078</v>
+        <v>-2.627169663574053</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.69258871752028</v>
+        <v>-2.132765031361952</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>2.835727681948274</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.52432854809032</v>
+        <v>-14.58312608015251</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.671814416264339</v>
+        <v>-2.637486398213334</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.724389921122833</v>
+        <v>-2.165561249980476</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>2.602659495002137</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.61982380501787</v>
+        <v>-14.67491621537585</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.503827078502152</v>
+        <v>-2.487212946196002</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.609216933024168</v>
+        <v>-2.056319075069113</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>2.421716231499548</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.46161641747845</v>
+        <v>-14.53232794512661</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.65733432932139</v>
+        <v>-2.637957721115636</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.804737383662505</v>
+        <v>-2.232449825198854</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>2.281046951472519</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.39534318049363</v>
+        <v>-14.43765750327809</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.520598318442403</v>
+        <v>-2.50563381629431</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.157548760641339</v>
+        <v>-2.573949452522437</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>2.165156439699059</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.06929247052329</v>
+        <v>-14.09613169134882</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.504376955221505</v>
+        <v>-2.503080817240174</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.381846092925791</v>
+        <v>-2.829864696169657</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>2.056234339634781</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.75619004806341</v>
+        <v>-13.78876369753362</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.555764243875279</v>
+        <v>-2.552595906587582</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.562192564570567</v>
+        <v>-2.990821467305837</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>1.940101449271082</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.7637181221974</v>
+        <v>-13.80803556731664</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.427551322146256</v>
+        <v>-2.408436559997336</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.721434244034481</v>
+        <v>-3.153257668663132</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>1.804778226967944</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.57177187023485</v>
+        <v>-13.63612053870194</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.411945297158919</v>
+        <v>-2.386834260308488</v>
       </c>
       <c r="G62" t="n">
-        <v>-2.896988932839186</v>
+        <v>-3.326049881568233</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>1.642420298605389</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.46211074163256</v>
+        <v>-13.5527094772973</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.501679940836109</v>
+        <v>-2.465977230986722</v>
       </c>
       <c r="G63" t="n">
-        <v>-2.894723964447568</v>
+        <v>-3.310823533363306</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>1.4509518456023</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.24709585206289</v>
+        <v>-13.34121641719206</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.371712650526295</v>
+        <v>-2.347950120868562</v>
       </c>
       <c r="G64" t="n">
-        <v>-2.980648747997816</v>
+        <v>-3.397154178301647</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>1.231814711532026</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.12991974162944</v>
+        <v>-13.24785520562771</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.357232563583346</v>
+        <v>-2.321660776762376</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.249250433098668</v>
+        <v>-3.659537019552679</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.9854663318709809</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.05945696773527</v>
+        <v>-13.175782078484</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.414170988642012</v>
+        <v>-2.380013170527949</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.209816416939389</v>
+        <v>-3.607809331025019</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.7117042909126219</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.12706561960994</v>
+        <v>-13.26521559919584</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.542082787405676</v>
+        <v>-2.507178708029634</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.153336222480183</v>
+        <v>-3.559577287356101</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.4102893731248312</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.17667235507724</v>
+        <v>-13.33485355801098</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.601836057575313</v>
+        <v>-2.548471831192438</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.253597077642121</v>
+        <v>-3.658123050845773</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.08256166154845111</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.98408458027545</v>
+        <v>-13.15368227128717</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.404587422961869</v>
+        <v>-2.349337904969785</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.082402125683711</v>
+        <v>-3.492662527532039</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.266795970954162</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.1173249462957</v>
+        <v>-13.29411031156753</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.673450954119555</v>
+        <v>-2.617271882625709</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.0267991155149</v>
+        <v>-3.451277758249343</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6310568586223986</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.02870314836006</v>
+        <v>-13.19689996296771</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.706142434315345</v>
+        <v>-2.660463389700563</v>
       </c>
       <c r="G71" t="n">
-        <v>-2.87031991195059</v>
+        <v>-3.28469129689122</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.002963875974</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.14593162800487</v>
+        <v>-13.32783608368781</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.777809700070954</v>
+        <v>-2.723345720249373</v>
       </c>
       <c r="G72" t="n">
-        <v>-2.870411558070482</v>
+        <v>-3.325630927877298</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.373278881113589</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.26659029099422</v>
+        <v>-13.47507212144586</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.784368943794659</v>
+        <v>-2.716550815074517</v>
       </c>
       <c r="G73" t="n">
-        <v>-2.760554044925559</v>
+        <v>-3.22582830331482</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.730328337810592</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.50807781690986</v>
+        <v>-13.71269741802319</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.847696412640087</v>
+        <v>-2.770098333697177</v>
       </c>
       <c r="G74" t="n">
-        <v>-2.82625122058534</v>
+        <v>-3.281012359792695</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.062300547224243</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.77129856554276</v>
+        <v>-13.92367987831761</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.923081892402746</v>
+        <v>-2.848259381662282</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.673123646548512</v>
+        <v>-3.143791933708564</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.358021541032388</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.8966311806466</v>
+        <v>-14.07480433001965</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.089367230795509</v>
+        <v>-3.001177478853642</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.30690575145975</v>
+        <v>-2.80121873755196</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.609230004010912</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.39441362699187</v>
+        <v>-14.55078809213344</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.208703571197842</v>
+        <v>-3.121692126511731</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.034991713739942</v>
+        <v>-2.537146989234345</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.811288465564575</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.1677366789441</v>
+        <v>-15.33360306364593</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.419830046823517</v>
+        <v>-3.34241526012039</v>
       </c>
       <c r="G78" t="n">
-        <v>-1.883356662227071</v>
+        <v>-2.387397229330682</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.961297635793387</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.59005509170966</v>
+        <v>-15.74357543483174</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.347927119616757</v>
+        <v>-3.249787217515178</v>
       </c>
       <c r="G79" t="n">
-        <v>-1.845153322534914</v>
+        <v>-2.391743873874135</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.057874665167863</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.05144093615493</v>
+        <v>-16.16552726311773</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.550739982937936</v>
+        <v>-3.459696108976572</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.671837417516144</v>
+        <v>-2.222421121222092</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.10217014103615</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.68406100946713</v>
+        <v>-16.79776765964752</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.701327650223469</v>
+        <v>-3.610296868564947</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.410331760555508</v>
+        <v>-1.947927899842463</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.099397307108772</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.39307466986081</v>
+        <v>-17.49029811076347</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.960843277152163</v>
+        <v>-3.863934051517707</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.401507548440184</v>
+        <v>-1.968731569057966</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.057837329524114</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.23839229513969</v>
+        <v>-18.32986821509483</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.193794621614995</v>
+        <v>-4.103837408789495</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.470281415267771</v>
+        <v>-2.063807872294581</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.987626159875083</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.02328894280401</v>
+        <v>-19.1078783114644</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.426300827781208</v>
+        <v>-4.327859802714269</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.241427961594399</v>
+        <v>-1.835753049094554</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.903480946583451</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.93582245087232</v>
+        <v>-20.00263247227365</v>
       </c>
       <c r="F85" t="n">
-        <v>-4.594065596395086</v>
+        <v>-4.488188143314047</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.249021497242601</v>
+        <v>-1.855784272442395</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.819986956803859</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.16590976436669</v>
+        <v>-21.2023718277809</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.814893468426479</v>
+        <v>-4.701802156479649</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.213030756730696</v>
+        <v>-1.827216867641749</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.749827205625467</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.24736016369895</v>
+        <v>-22.29184780875513</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.861017651337881</v>
+        <v>-4.756292320906914</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.452659175642808</v>
+        <v>-2.070916992737638</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.708961173774332</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.66495543849252</v>
+        <v>-23.68001158676051</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.904313896835468</v>
+        <v>-4.791392784825582</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.44683310087824</v>
+        <v>-2.089298585927422</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.711353658251375</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.0270786261457</v>
+        <v>-25.03537914614736</v>
       </c>
       <c r="F89" t="n">
-        <v>-5.166146861367149</v>
+        <v>-5.055019394846577</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.587261141158594</v>
+        <v>-2.215076339327884</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.767006817921472</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.56991486992323</v>
+        <v>-26.5795377125119</v>
       </c>
       <c r="F90" t="n">
-        <v>-5.265648362964266</v>
+        <v>-5.153264035370889</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.7778457936256</v>
+        <v>-2.427904814322983</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.88332204342113</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.10900671508802</v>
+        <v>-28.11296059054622</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.516091024023645</v>
+        <v>-5.393416146396671</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.044627648631452</v>
+        <v>-2.674524522952577</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.063666045237154</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.80188074943172</v>
+        <v>-29.828575954926</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.665605122476156</v>
+        <v>-5.541463906930909</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.26237882949504</v>
+        <v>-2.925346860794365</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.301528435336679</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.52723678712575</v>
+        <v>-31.55008285558456</v>
       </c>
       <c r="F93" t="n">
-        <v>-5.816467728121365</v>
+        <v>-5.699422540716334</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.705527096081784</v>
+        <v>-3.358911561700965</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.58036073963436</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.17597666859</v>
+        <v>-33.20745056462151</v>
       </c>
       <c r="F94" t="n">
-        <v>-5.771613498585612</v>
+        <v>-5.664819584305652</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.125279417490364</v>
+        <v>-3.7558701838621</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.884877258968721</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.16179097901733</v>
+        <v>-35.20502176300071</v>
       </c>
       <c r="F95" t="n">
-        <v>-5.981195082475963</v>
+        <v>-5.879572627818485</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.308597841880212</v>
+        <v>-3.959167462388422</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.19361419776518</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.99195090095937</v>
+        <v>-37.04445103535469</v>
       </c>
       <c r="F96" t="n">
-        <v>-6.293459597553971</v>
+        <v>-6.211200658799407</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.899662945972777</v>
+        <v>-4.535110956698793</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.483464074235753</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.08406161815867</v>
+        <v>-39.13787098283817</v>
       </c>
       <c r="F97" t="n">
-        <v>-6.285538754334727</v>
+        <v>-6.198173817471889</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.223906918150965</v>
+        <v>-4.871517678216945</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.734640831191807</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.3336596462411</v>
+        <v>-41.40323214354203</v>
       </c>
       <c r="F98" t="n">
-        <v>-6.484162080746553</v>
+        <v>-6.412848307167671</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.742034803112274</v>
+        <v>-5.38066424342883</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.932869354989862</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.27396511199058</v>
+        <v>-43.34781879232076</v>
       </c>
       <c r="F99" t="n">
-        <v>-6.595878700895002</v>
+        <v>-6.522208312804609</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.02249811458773</v>
+        <v>-5.632128104109863</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.061153192912682</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.36484515272276</v>
+        <v>-45.45883479482351</v>
       </c>
       <c r="F100" t="n">
-        <v>-6.709074751264565</v>
+        <v>-6.649098911946618</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.11549274167251</v>
+        <v>-5.725463131068528</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.118598274810948</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.52278396861026</v>
+        <v>-47.63117514383691</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.839330072236898</v>
+        <v>-6.792996412480029</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.593702195269397</v>
+        <v>-6.192832157912465</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.101626959706667</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.67023584992154</v>
+        <v>-49.79238703543484</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.267906605760801</v>
+        <v>-7.208938873761666</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.027659665261249</v>
+        <v>-6.626933643235576</v>
       </c>
     </row>
   </sheetData>
